--- a/Not OOP/lab3.xlsx
+++ b/Not OOP/lab3.xlsx
@@ -559,56 +559,6 @@
     <t>События 1, 2, 4, 5, 6 критические, т.к. их резервы времени равен 0</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Критический путь</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  - 12456</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Критические пути</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  - 12456, 1456</t>
-    </r>
-  </si>
-  <si>
     <t>Чтобы выполнить работы проекта за директивное время t0=60, необходимо дополнительно вложить 87 ден.ед. При этом средства распределятся следующим образом: 12 ден.ед. – в работу (1,2), 20 ден.ед. – в работу
 (1,4), 5 ден.ед. – в работу (2,4), 10 ден.ед. – в работу (4,5) и 40 ден.ед. – в работу (5,6), что приведет к сокращению продолжительности работы (1,2) на 3 дня, работы (1,4) - на 2 дня, работы (2, 4) - на 1 день, работы (4, 5) - на 4 дня и работы(5, 6) - на 4 дня. Сокращение срока реализации проекта за счет вложения дополнительных средств составит 14 ед. времени.</t>
   </si>
@@ -665,6 +615,34 @@
   </si>
   <si>
     <t>МОптим лаб №3 "Приложения линейного программирования" Вар.8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Критический путь</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  - 13456</t>
+    </r>
+  </si>
+  <si>
+    <t>Критический путь  - 13456</t>
   </si>
 </sst>
 </file>
@@ -1477,6 +1455,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1495,20 +1487,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1886,11 +1864,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="119686656"/>
-        <c:axId val="119688192"/>
+        <c:axId val="202705536"/>
+        <c:axId val="202715520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119686656"/>
+        <c:axId val="202705536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1933,7 +1911,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119688192"/>
+        <c:crossAx val="202715520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1941,7 +1919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119688192"/>
+        <c:axId val="202715520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1992,7 +1970,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119686656"/>
+        <c:crossAx val="202705536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2173,25 +2151,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.999999999999984</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.999999999999984</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2272,34 +2250,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.999999999999984</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>20.000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>9.0000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.000000000000036</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.9999999999999929</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21.999999999999972</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2380,31 +2358,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>7.9999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.000000000000023</c:v>
+                <c:pt idx="2">
+                  <c:v>2.9999999999999716</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>7.9999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.9999999999999645</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.000000000000021</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.000000000000043</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2428,11 +2406,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="205035008"/>
-        <c:axId val="205036544"/>
+        <c:axId val="260242048"/>
+        <c:axId val="260247936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="205035008"/>
+        <c:axId val="260242048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2475,7 +2453,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205036544"/>
+        <c:crossAx val="260247936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2483,7 +2461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205036544"/>
+        <c:axId val="260247936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2534,7 +2512,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205035008"/>
+        <c:crossAx val="260242048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12582,7 +12560,7 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
+        <a:ln w="9525">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -12632,7 +12610,7 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="9525">
+        <a:ln w="28575">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -12682,7 +12660,7 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
+        <a:ln w="9525">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -12782,7 +12760,7 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
+        <a:ln w="9525">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -12832,10 +12810,7 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
+        <a:ln w="28575">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -13104,7 +13079,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>60</a:t>
+            <a:t>40</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13170,7 +13145,7 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:ext cx="256160" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="45" name="TextBox 44"/>
@@ -13179,22 +13154,24 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13673818" y="10096500"/>
-          <a:ext cx="327654" cy="264560"/>
+          <a:ext cx="256160" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:ln w="9525">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -13208,7 +13185,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>16</a:t>
+            <a:t>6</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
@@ -13313,7 +13290,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>33</a:t>
+            <a:t>20</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
@@ -13328,7 +13305,7 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>6724</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:ext cx="256160" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="48" name="TextBox 47"/>
@@ -13336,8 +13313,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14383871" y="10674724"/>
-          <a:ext cx="327654" cy="264560"/>
+          <a:off x="14472717" y="10674724"/>
+          <a:ext cx="256160" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13366,7 +13343,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>17</a:t>
+            <a:t>9</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
@@ -13419,7 +13396,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>20</a:t>
+            <a:t>14</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
@@ -13472,7 +13449,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>9</a:t>
+            <a:t>13</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
@@ -13525,7 +13502,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>22</a:t>
+            <a:t>15</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
@@ -13540,7 +13517,7 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:ext cx="256160" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="52" name="TextBox 51"/>
@@ -13549,7 +13526,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15806057" y="11477625"/>
-          <a:ext cx="327654" cy="264560"/>
+          <a:ext cx="256160" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13578,7 +13555,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>13</a:t>
+            <a:t>8</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
@@ -13631,7 +13608,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>20</a:t>
+            <a:t>17</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
@@ -13646,7 +13623,7 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:ext cx="256160" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="54" name="TextBox 53"/>
@@ -13655,7 +13632,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17078325" y="10934700"/>
-          <a:ext cx="327654" cy="264560"/>
+          <a:ext cx="256160" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13684,7 +13661,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>14</a:t>
+            <a:t>9</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
@@ -13699,7 +13676,7 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:ext cx="256160" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="55" name="TextBox 54"/>
@@ -13708,7 +13685,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14116050" y="9568543"/>
-          <a:ext cx="327654" cy="264560"/>
+          <a:ext cx="256160" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13737,7 +13714,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>16</a:t>
+            <a:t>6</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
         </a:p>
@@ -13790,7 +13767,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>33</a:t>
+            <a:t>23</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
         </a:p>
@@ -13843,7 +13820,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>46</a:t>
+            <a:t>31</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
         </a:p>
@@ -14256,7 +14233,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14266,8 +14243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V41" sqref="V41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA45" sqref="AA45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14288,7 +14265,7 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
@@ -14308,22 +14285,22 @@
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="102"/>
-      <c r="B4" s="101" t="s">
+      <c r="A4" s="112"/>
+      <c r="B4" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="80">
         <v>1.2</v>
       </c>
@@ -14369,14 +14346,14 @@
       <c r="R5" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="X5" s="104" t="s">
+      <c r="X5" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
+      <c r="Y5" s="114"/>
+      <c r="Z5" s="114"/>
+      <c r="AA5" s="114"/>
+      <c r="AB5" s="114"/>
+      <c r="AC5" s="114"/>
       <c r="AH5" s="84" t="s">
         <v>132</v>
       </c>
@@ -14441,12 +14418,12 @@
       <c r="R6" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104"/>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
+      <c r="Z6" s="114"/>
+      <c r="AA6" s="114"/>
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="114"/>
       <c r="AH6" s="84">
         <v>1</v>
       </c>
@@ -14524,22 +14501,22 @@
       </c>
       <c r="Z7" s="75">
         <f>B14</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AH7" s="84">
         <v>2</v>
       </c>
       <c r="AI7" s="63">
         <f>MAX(AI6+Y42)</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AJ7" s="86">
         <f>MIN(AJ9-AB42,AJ10-AC42)</f>
-        <v>16</v>
+        <v>13.999999999999996</v>
       </c>
       <c r="AK7" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.9999999999999964</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
@@ -14596,15 +14573,15 @@
       </c>
       <c r="AI8" s="63">
         <f>MAX(AI6+Z42)</f>
-        <v>9.999999999999984</v>
+        <v>10</v>
       </c>
       <c r="AJ8" s="86">
         <f>MIN(AJ9-AD42,AJ11-AE42)</f>
-        <v>24.000000000000007</v>
+        <v>10</v>
       </c>
       <c r="AK8" s="63">
         <f t="shared" si="1"/>
-        <v>14.000000000000023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -14623,12 +14600,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R9" s="104" t="s">
+      <c r="R9" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="104"/>
+      <c r="S9" s="114"/>
+      <c r="T9" s="114"/>
+      <c r="U9" s="114"/>
       <c r="X9" s="7" t="s">
         <v>127</v>
       </c>
@@ -14637,11 +14614,11 @@
       </c>
       <c r="AI9" s="63">
         <f>MAX(AI6+AA42,AI7+AB42,AI8+AD42)</f>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="AJ9" s="86">
         <f>MIN(AJ10-AF42,AJ11-AG42)</f>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="AK9" s="63">
         <f t="shared" si="1"/>
@@ -14670,20 +14647,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="114"/>
       <c r="AH10" s="84">
         <v>5</v>
       </c>
       <c r="AI10" s="63">
         <f>MAX(AI7+AC42,AI9+AF42)</f>
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="AJ10" s="86">
         <f>MIN(AJ11-AH42)</f>
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="AK10" s="63">
         <f t="shared" si="1"/>
@@ -14709,7 +14686,7 @@
         <v>52</v>
       </c>
       <c r="P11" s="63">
-        <f t="shared" si="0"/>
+        <f>O11-N11</f>
         <v>0</v>
       </c>
       <c r="X11" t="s">
@@ -14720,11 +14697,11 @@
       </c>
       <c r="AI11" s="63">
         <f>MAX(AI8+AE42,AI9+AG42,AI10+AH42)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AJ11" s="86">
         <f>AI12</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK11" s="63">
         <f t="shared" si="1"/>
@@ -14753,33 +14730,33 @@
       </c>
       <c r="AI12">
         <f>AI11</f>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="M13" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="X13" t="s">
         <v>124</v>
       </c>
-      <c r="AH13" t="s">
-        <v>140</v>
+      <c r="AH13" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="106">
-        <v>60</v>
+      <c r="B14" s="116">
+        <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B15" s="106"/>
+      <c r="B15" s="116"/>
       <c r="M15" s="7" t="s">
         <v>120</v>
       </c>
@@ -14791,7 +14768,7 @@
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B16" s="106"/>
+      <c r="B16" s="116"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="96" t="s">
@@ -14944,7 +14921,7 @@
       </c>
       <c r="AI18" s="71">
         <f>Y42</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AJ18" s="63">
         <f>AI$6</f>
@@ -14952,19 +14929,19 @@
       </c>
       <c r="AK18" s="63">
         <f t="shared" ref="AK18:AK27" si="5">AM18-AI18</f>
-        <v>0</v>
+        <v>7.9999999999999964</v>
       </c>
       <c r="AL18" s="63">
         <f t="shared" ref="AL18:AL27" si="6">AJ18+AI18</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AM18" s="63">
         <f>AJ7</f>
-        <v>16</v>
+        <v>13.999999999999996</v>
       </c>
       <c r="AN18" s="63">
         <f t="shared" ref="AN18:AN27" si="7">AM18-AJ18-AI18</f>
-        <v>0</v>
+        <v>7.9999999999999964</v>
       </c>
       <c r="AO18" s="63">
         <f>AI7-AJ6-AI18</f>
@@ -14972,7 +14949,7 @@
       </c>
       <c r="AP18" s="63">
         <f>AM18-AI18-AJ6</f>
-        <v>0</v>
+        <v>7.9999999999999964</v>
       </c>
       <c r="AQ18" s="63">
         <f>AI7-AJ18-AI18</f>
@@ -15038,7 +15015,7 @@
       </c>
       <c r="AI19" s="71">
         <f>Z42</f>
-        <v>9.999999999999984</v>
+        <v>10</v>
       </c>
       <c r="AJ19" s="63">
         <f>AI$6</f>
@@ -15046,19 +15023,19 @@
       </c>
       <c r="AK19" s="63">
         <f t="shared" si="5"/>
-        <v>14.000000000000023</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="63">
         <f t="shared" si="6"/>
-        <v>9.999999999999984</v>
+        <v>10</v>
       </c>
       <c r="AM19" s="63">
         <f>AJ8</f>
-        <v>24.000000000000007</v>
+        <v>10</v>
       </c>
       <c r="AN19" s="63">
         <f t="shared" si="7"/>
-        <v>14.000000000000023</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="63">
         <f>AI8-AJ6-AI19</f>
@@ -15066,7 +15043,7 @@
       </c>
       <c r="AP19" s="63">
         <f>AM19-AI19-AJ6</f>
-        <v>14.000000000000023</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="63">
         <f>AI8-AJ19-AI19</f>
@@ -15140,7 +15117,7 @@
       </c>
       <c r="AI20" s="71">
         <f>AA42</f>
-        <v>33</v>
+        <v>20.000000000000028</v>
       </c>
       <c r="AJ20" s="63">
         <f>AI$6</f>
@@ -15148,31 +15125,31 @@
       </c>
       <c r="AK20" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.9999999999999716</v>
       </c>
       <c r="AL20" s="63">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>20.000000000000028</v>
       </c>
       <c r="AM20" s="63">
         <f>AJ9</f>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="AN20" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.9999999999999716</v>
       </c>
       <c r="AO20" s="63">
         <f>AI9-AJ6-AI20</f>
-        <v>0</v>
+        <v>2.9999999999999716</v>
       </c>
       <c r="AP20" s="63">
         <f>AM20-AI20-AJ6</f>
-        <v>0</v>
+        <v>2.9999999999999716</v>
       </c>
       <c r="AQ20" s="63">
         <f>AI9-AJ20-AI20</f>
-        <v>0</v>
+        <v>2.9999999999999716</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
@@ -15244,27 +15221,27 @@
       </c>
       <c r="AI21" s="71">
         <f>AB42</f>
-        <v>17</v>
+        <v>9.0000000000000036</v>
       </c>
       <c r="AJ21" s="63">
         <f>AI$7</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AK21" s="63">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>13.999999999999996</v>
       </c>
       <c r="AL21" s="63">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>15.000000000000004</v>
       </c>
       <c r="AM21" s="63">
         <f>AJ9</f>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="AN21" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7.9999999999999964</v>
       </c>
       <c r="AO21" s="63">
         <f>AI9-AJ7-AI21</f>
@@ -15276,7 +15253,7 @@
       </c>
       <c r="AQ21" s="63">
         <f>AI9-AJ21-AI21</f>
-        <v>0</v>
+        <v>7.9999999999999964</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -15342,39 +15319,39 @@
       </c>
       <c r="AI22" s="71">
         <f>AC42</f>
-        <v>20.000000000000036</v>
+        <v>14.000000000000021</v>
       </c>
       <c r="AJ22" s="63">
         <f>AI$7</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AK22" s="63">
         <f t="shared" si="5"/>
-        <v>25.999999999999964</v>
+        <v>16.999999999999979</v>
       </c>
       <c r="AL22" s="63">
         <f t="shared" si="6"/>
-        <v>36.000000000000036</v>
+        <v>20.000000000000021</v>
       </c>
       <c r="AM22" s="63">
         <f>AJ10</f>
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="AN22" s="63">
         <f t="shared" si="7"/>
-        <v>9.9999999999999645</v>
+        <v>10.999999999999979</v>
       </c>
       <c r="AO22" s="63">
         <f>AI10-AJ7-AI22</f>
-        <v>9.9999999999999645</v>
+        <v>2.9999999999999822</v>
       </c>
       <c r="AP22" s="63">
         <f>AM22-AI22-AJ7</f>
-        <v>9.9999999999999645</v>
+        <v>2.9999999999999822</v>
       </c>
       <c r="AQ22" s="63">
         <f>AI10-AJ22-AI22</f>
-        <v>9.9999999999999645</v>
+        <v>10.999999999999979</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
@@ -15440,27 +15417,27 @@
       </c>
       <c r="AI23" s="71">
         <f>AD42</f>
-        <v>8.9999999999999929</v>
+        <v>13</v>
       </c>
       <c r="AJ23" s="63">
         <f>AI$8</f>
-        <v>9.999999999999984</v>
+        <v>10</v>
       </c>
       <c r="AK23" s="63">
         <f t="shared" si="5"/>
-        <v>24.000000000000007</v>
+        <v>10</v>
       </c>
       <c r="AL23" s="63">
         <f t="shared" si="6"/>
-        <v>18.999999999999979</v>
+        <v>23</v>
       </c>
       <c r="AM23" s="63">
         <f>AJ9</f>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="AN23" s="63">
         <f t="shared" si="7"/>
-        <v>14.000000000000021</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="63">
         <f>AI9-AJ8-AI23</f>
@@ -15472,7 +15449,7 @@
       </c>
       <c r="AQ23" s="63">
         <f>AI9-AJ23-AI23</f>
-        <v>14.000000000000021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
@@ -15538,39 +15515,39 @@
       </c>
       <c r="AI24" s="71">
         <f>AE42</f>
-        <v>21.999999999999972</v>
+        <v>15</v>
       </c>
       <c r="AJ24" s="63">
         <f>AI$8</f>
-        <v>9.999999999999984</v>
+        <v>10</v>
       </c>
       <c r="AK24" s="63">
         <f t="shared" si="5"/>
-        <v>38.000000000000028</v>
+        <v>25</v>
       </c>
       <c r="AL24" s="63">
         <f t="shared" si="6"/>
-        <v>31.999999999999957</v>
+        <v>25</v>
       </c>
       <c r="AM24" s="63">
         <f>AJ11</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AN24" s="63">
         <f t="shared" si="7"/>
-        <v>28.000000000000043</v>
+        <v>15</v>
       </c>
       <c r="AO24" s="63">
         <f>AI11-AJ8-AI24</f>
-        <v>14.000000000000021</v>
+        <v>15</v>
       </c>
       <c r="AP24" s="63">
         <f>AM24-AI24-AJ8</f>
-        <v>14.000000000000021</v>
+        <v>15</v>
       </c>
       <c r="AQ24" s="63">
         <f>AI11-AJ24-AI24</f>
-        <v>28.000000000000043</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -15643,23 +15620,23 @@
       </c>
       <c r="AI25" s="71">
         <f>AF42</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AJ25" s="63">
         <f>AI$9</f>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="AK25" s="63">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="AL25" s="63">
         <f t="shared" si="6"/>
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="AM25" s="63">
         <f>AJ10</f>
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="AN25" s="63">
         <f t="shared" si="7"/>
@@ -15737,39 +15714,39 @@
       </c>
       <c r="AI26" s="71">
         <f>AG42</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AJ26" s="63">
         <f>AI$9</f>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="AK26" s="63">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AL26" s="63">
         <f t="shared" si="6"/>
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="AM26" s="63">
         <f>AJ11</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AN26" s="63">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="63">
         <f>AI11-AJ9-AI26</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AP26" s="63">
         <f>AM26-AI26-AJ9</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="63">
         <f>AI11-AJ26-AI26</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -15824,23 +15801,23 @@
       </c>
       <c r="AI27" s="71">
         <f>AH42</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AJ27" s="63">
         <f>AI$10</f>
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="AK27" s="63">
         <f t="shared" si="5"/>
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="AL27" s="63">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AM27" s="63">
         <f>AJ11</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AN27" s="63">
         <f t="shared" si="7"/>
@@ -16152,44 +16129,44 @@
         <v>92</v>
       </c>
       <c r="Y42" s="69">
-        <f t="shared" ref="Y42:AH42" si="9">Y44-Y43</f>
-        <v>16</v>
+        <f>Y44-Y43</f>
+        <v>6</v>
       </c>
       <c r="Z42" s="69">
-        <f t="shared" si="9"/>
-        <v>9.999999999999984</v>
+        <f t="shared" ref="Y42:AH42" si="9">Z44-Z43</f>
+        <v>10</v>
       </c>
       <c r="AA42" s="69">
         <f t="shared" si="9"/>
-        <v>33</v>
+        <v>20.000000000000028</v>
       </c>
       <c r="AB42" s="69">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>9.0000000000000036</v>
       </c>
       <c r="AC42" s="69">
         <f t="shared" si="9"/>
-        <v>20.000000000000036</v>
+        <v>14.000000000000021</v>
       </c>
       <c r="AD42" s="69">
-        <f t="shared" si="9"/>
-        <v>8.9999999999999929</v>
+        <f>AD44-AD43</f>
+        <v>13</v>
       </c>
       <c r="AE42" s="69">
         <f t="shared" si="9"/>
-        <v>21.999999999999972</v>
+        <v>15</v>
       </c>
       <c r="AF42" s="69">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AG42" s="69">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AH42" s="69">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="13:36" x14ac:dyDescent="0.25">
@@ -16206,25 +16183,25 @@
         <v>0</v>
       </c>
       <c r="AB43" s="68">
-        <v>16</v>
+        <v>13.999999999999996</v>
       </c>
       <c r="AC43" s="68">
-        <v>25.999999999999964</v>
+        <v>16.999999999999979</v>
       </c>
       <c r="AD43" s="68">
-        <v>24.000000000000007</v>
+        <v>10</v>
       </c>
       <c r="AE43" s="68">
-        <v>9.999999999999984</v>
+        <v>10</v>
       </c>
       <c r="AF43" s="68">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="AG43" s="68">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="AH43" s="68">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="13:36" x14ac:dyDescent="0.25">
@@ -16232,34 +16209,34 @@
         <v>90</v>
       </c>
       <c r="Y44" s="68">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="Z44" s="68">
-        <v>9.999999999999984</v>
+        <v>10</v>
       </c>
       <c r="AA44" s="68">
-        <v>33</v>
+        <v>20.000000000000028</v>
       </c>
       <c r="AB44" s="68">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="AC44" s="68">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="AD44" s="68">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="AE44" s="68">
-        <v>31.999999999999957</v>
+        <v>25</v>
       </c>
       <c r="AF44" s="68">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="AG44" s="68">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="AH44" s="68">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="13:36" x14ac:dyDescent="0.25">
@@ -16271,43 +16248,43 @@
       </c>
       <c r="Y45" s="67">
         <f t="shared" ref="Y45:AH45" si="10">(Y39+Y43-Y44)/Y41</f>
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="67">
         <f t="shared" si="10"/>
-        <v>12.000000000000064</v>
+        <v>12</v>
       </c>
       <c r="AA45" s="67">
         <f t="shared" si="10"/>
-        <v>-43.333333333333336</v>
+        <v>-9.4739031434680029E-14</v>
       </c>
       <c r="AB45" s="67">
         <f t="shared" si="10"/>
-        <v>-114.28571428571428</v>
+        <v>-5.0753052554292867E-14</v>
       </c>
       <c r="AC45" s="67">
         <f t="shared" si="10"/>
-        <v>-40.000000000000242</v>
+        <v>-1.4210854715202004E-13</v>
       </c>
       <c r="AD45" s="67">
         <f t="shared" si="10"/>
-        <v>70.000000000000071</v>
+        <v>30</v>
       </c>
       <c r="AE45" s="67">
         <f t="shared" si="10"/>
-        <v>-139.99999999999943</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="67">
         <f t="shared" si="10"/>
-        <v>-100</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="AG45" s="67">
         <f t="shared" si="10"/>
-        <v>-21.428571428571427</v>
+        <v>0</v>
       </c>
       <c r="AH45" s="67">
         <f t="shared" si="10"/>
-        <v>-2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="13:36" x14ac:dyDescent="0.25">
@@ -16316,7 +16293,7 @@
       </c>
       <c r="Y47">
         <f>SUM(Y45:AH45)</f>
-        <v>-579.0476190476187</v>
+        <v>116.66666666666639</v>
       </c>
       <c r="Z47" t="s">
         <v>86</v>
@@ -16331,96 +16308,96 @@
       <c r="X49" t="s">
         <v>84</v>
       </c>
-      <c r="AJ49" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK49" s="105"/>
-      <c r="AL49" s="105"/>
-      <c r="AM49" s="105"/>
-      <c r="AN49" s="105"/>
-      <c r="AO49" s="105"/>
-      <c r="AP49" s="105"/>
-      <c r="AQ49" s="105"/>
+      <c r="AJ49" s="115" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK49" s="115"/>
+      <c r="AL49" s="115"/>
+      <c r="AM49" s="115"/>
+      <c r="AN49" s="115"/>
+      <c r="AO49" s="115"/>
+      <c r="AP49" s="115"/>
+      <c r="AQ49" s="115"/>
     </row>
     <row r="50" spans="24:43" x14ac:dyDescent="0.25">
-      <c r="AJ50" s="105"/>
-      <c r="AK50" s="105"/>
-      <c r="AL50" s="105"/>
-      <c r="AM50" s="105"/>
-      <c r="AN50" s="105"/>
-      <c r="AO50" s="105"/>
-      <c r="AP50" s="105"/>
-      <c r="AQ50" s="105"/>
+      <c r="AJ50" s="115"/>
+      <c r="AK50" s="115"/>
+      <c r="AL50" s="115"/>
+      <c r="AM50" s="115"/>
+      <c r="AN50" s="115"/>
+      <c r="AO50" s="115"/>
+      <c r="AP50" s="115"/>
+      <c r="AQ50" s="115"/>
     </row>
     <row r="51" spans="24:43" x14ac:dyDescent="0.25">
-      <c r="AJ51" s="105"/>
-      <c r="AK51" s="105"/>
-      <c r="AL51" s="105"/>
-      <c r="AM51" s="105"/>
-      <c r="AN51" s="105"/>
-      <c r="AO51" s="105"/>
-      <c r="AP51" s="105"/>
-      <c r="AQ51" s="105"/>
+      <c r="AJ51" s="115"/>
+      <c r="AK51" s="115"/>
+      <c r="AL51" s="115"/>
+      <c r="AM51" s="115"/>
+      <c r="AN51" s="115"/>
+      <c r="AO51" s="115"/>
+      <c r="AP51" s="115"/>
+      <c r="AQ51" s="115"/>
     </row>
     <row r="52" spans="24:43" x14ac:dyDescent="0.25">
-      <c r="AJ52" s="105"/>
-      <c r="AK52" s="105"/>
-      <c r="AL52" s="105"/>
-      <c r="AM52" s="105"/>
-      <c r="AN52" s="105"/>
-      <c r="AO52" s="105"/>
-      <c r="AP52" s="105"/>
-      <c r="AQ52" s="105"/>
+      <c r="AJ52" s="115"/>
+      <c r="AK52" s="115"/>
+      <c r="AL52" s="115"/>
+      <c r="AM52" s="115"/>
+      <c r="AN52" s="115"/>
+      <c r="AO52" s="115"/>
+      <c r="AP52" s="115"/>
+      <c r="AQ52" s="115"/>
     </row>
     <row r="53" spans="24:43" x14ac:dyDescent="0.25">
-      <c r="AJ53" s="105"/>
-      <c r="AK53" s="105"/>
-      <c r="AL53" s="105"/>
-      <c r="AM53" s="105"/>
-      <c r="AN53" s="105"/>
-      <c r="AO53" s="105"/>
-      <c r="AP53" s="105"/>
-      <c r="AQ53" s="105"/>
+      <c r="AJ53" s="115"/>
+      <c r="AK53" s="115"/>
+      <c r="AL53" s="115"/>
+      <c r="AM53" s="115"/>
+      <c r="AN53" s="115"/>
+      <c r="AO53" s="115"/>
+      <c r="AP53" s="115"/>
+      <c r="AQ53" s="115"/>
     </row>
     <row r="54" spans="24:43" x14ac:dyDescent="0.25">
-      <c r="AJ54" s="105"/>
-      <c r="AK54" s="105"/>
-      <c r="AL54" s="105"/>
-      <c r="AM54" s="105"/>
-      <c r="AN54" s="105"/>
-      <c r="AO54" s="105"/>
-      <c r="AP54" s="105"/>
-      <c r="AQ54" s="105"/>
+      <c r="AJ54" s="115"/>
+      <c r="AK54" s="115"/>
+      <c r="AL54" s="115"/>
+      <c r="AM54" s="115"/>
+      <c r="AN54" s="115"/>
+      <c r="AO54" s="115"/>
+      <c r="AP54" s="115"/>
+      <c r="AQ54" s="115"/>
     </row>
     <row r="55" spans="24:43" x14ac:dyDescent="0.25">
-      <c r="AJ55" s="105"/>
-      <c r="AK55" s="105"/>
-      <c r="AL55" s="105"/>
-      <c r="AM55" s="105"/>
-      <c r="AN55" s="105"/>
-      <c r="AO55" s="105"/>
-      <c r="AP55" s="105"/>
-      <c r="AQ55" s="105"/>
+      <c r="AJ55" s="115"/>
+      <c r="AK55" s="115"/>
+      <c r="AL55" s="115"/>
+      <c r="AM55" s="115"/>
+      <c r="AN55" s="115"/>
+      <c r="AO55" s="115"/>
+      <c r="AP55" s="115"/>
+      <c r="AQ55" s="115"/>
     </row>
     <row r="56" spans="24:43" x14ac:dyDescent="0.25">
-      <c r="AJ56" s="105"/>
-      <c r="AK56" s="105"/>
-      <c r="AL56" s="105"/>
-      <c r="AM56" s="105"/>
-      <c r="AN56" s="105"/>
-      <c r="AO56" s="105"/>
-      <c r="AP56" s="105"/>
-      <c r="AQ56" s="105"/>
+      <c r="AJ56" s="115"/>
+      <c r="AK56" s="115"/>
+      <c r="AL56" s="115"/>
+      <c r="AM56" s="115"/>
+      <c r="AN56" s="115"/>
+      <c r="AO56" s="115"/>
+      <c r="AP56" s="115"/>
+      <c r="AQ56" s="115"/>
     </row>
     <row r="57" spans="24:43" x14ac:dyDescent="0.25">
-      <c r="AJ57" s="105"/>
-      <c r="AK57" s="105"/>
-      <c r="AL57" s="105"/>
-      <c r="AM57" s="105"/>
-      <c r="AN57" s="105"/>
-      <c r="AO57" s="105"/>
-      <c r="AP57" s="105"/>
-      <c r="AQ57" s="105"/>
+      <c r="AJ57" s="115"/>
+      <c r="AK57" s="115"/>
+      <c r="AL57" s="115"/>
+      <c r="AM57" s="115"/>
+      <c r="AN57" s="115"/>
+      <c r="AO57" s="115"/>
+      <c r="AP57" s="115"/>
+      <c r="AQ57" s="115"/>
     </row>
     <row r="58" spans="24:43" x14ac:dyDescent="0.25">
       <c r="AJ58" s="66"/>
@@ -16489,17 +16466,17 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16508,90 +16485,90 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108" t="s">
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="108" t="s">
+      <c r="E7" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="108" t="s">
+      <c r="F7" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="108" t="s">
+      <c r="G7" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="108" t="s">
+      <c r="H7" s="102" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="109" t="s">
+      <c r="D8" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="109" t="s">
+      <c r="E8" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="109" t="s">
+      <c r="F8" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="109" t="s">
+      <c r="G8" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="109" t="s">
+      <c r="H8" s="103" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="107">
+      <c r="D9" s="101">
         <v>9.7087378640776587E-3</v>
       </c>
-      <c r="E9" s="107">
+      <c r="E9" s="101">
         <v>0</v>
       </c>
-      <c r="F9" s="107">
+      <c r="F9" s="101">
         <v>1</v>
       </c>
-      <c r="G9" s="107">
+      <c r="G9" s="101">
         <v>0.36363636363636365</v>
       </c>
-      <c r="H9" s="107">
+      <c r="H9" s="101">
         <v>0.41666666666666646</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="107">
+      <c r="D10" s="101">
         <v>7.7669902912621366E-2</v>
       </c>
-      <c r="E10" s="107">
+      <c r="E10" s="101">
         <v>0</v>
       </c>
-      <c r="F10" s="107">
+      <c r="F10" s="101">
         <v>1</v>
       </c>
-      <c r="G10" s="107">
+      <c r="G10" s="101">
         <v>0.71428571428571375</v>
       </c>
-      <c r="H10" s="107">
+      <c r="H10" s="101">
         <v>0.26666666666666672</v>
       </c>
     </row>
@@ -16624,90 +16601,90 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108" t="s">
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="108" t="s">
+      <c r="E14" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="108" t="s">
+      <c r="F14" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="108" t="s">
+      <c r="G14" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="108" t="s">
+      <c r="H14" s="102" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="109" t="s">
+      <c r="E15" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="109" t="s">
+      <c r="F15" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="109" t="s">
+      <c r="G15" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="109" t="s">
+      <c r="H15" s="103" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="107">
+      <c r="D16" s="101">
         <v>1</v>
       </c>
-      <c r="E16" s="107">
+      <c r="E16" s="101">
         <v>3.8834951456310697E-2</v>
       </c>
-      <c r="F16" s="107">
+      <c r="F16" s="101">
         <v>1</v>
       </c>
-      <c r="G16" s="107">
+      <c r="G16" s="101">
         <v>9.0909090909090787E-2</v>
       </c>
-      <c r="H16" s="107">
+      <c r="H16" s="101">
         <v>6.7796610169491678E-2</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="107">
+      <c r="D17" s="101">
         <v>0.99999999999999989</v>
       </c>
-      <c r="E17" s="107">
+      <c r="E17" s="101">
         <v>4.85436893203883E-2</v>
       </c>
-      <c r="F17" s="107">
+      <c r="F17" s="101">
         <v>1</v>
       </c>
-      <c r="G17" s="107">
+      <c r="G17" s="101">
         <v>3.7558685446009481E-2</v>
       </c>
-      <c r="H17" s="107">
+      <c r="H17" s="101">
         <v>8.3333333333333232E-2</v>
       </c>
     </row>
@@ -16842,7 +16819,7 @@
         <v>0.9</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -16914,7 +16891,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K6" s="99"/>
     </row>
@@ -16922,15 +16899,15 @@
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="110">
+      <c r="B7" s="104">
         <f>A2</f>
         <v>7</v>
       </c>
-      <c r="C7" s="113">
+      <c r="C7" s="107">
         <f>B2</f>
         <v>12</v>
       </c>
-      <c r="D7" s="111">
+      <c r="D7" s="105">
         <f>C2</f>
         <v>20</v>
       </c>
@@ -16968,7 +16945,7 @@
         <f>D2</f>
         <v>15</v>
       </c>
-      <c r="C8" s="112">
+      <c r="C8" s="106">
         <f>E2</f>
         <v>11</v>
       </c>
@@ -17006,11 +16983,11 @@
       <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="111">
+      <c r="B9" s="105">
         <f>G2</f>
         <v>23</v>
       </c>
-      <c r="C9" s="110">
+      <c r="C9" s="104">
         <f>H2</f>
         <v>9</v>
       </c>
@@ -17070,7 +17047,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -17125,32 +17102,32 @@
     </row>
     <row r="17" spans="1:11" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A17" s="63"/>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="114" t="s">
+      <c r="C17" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="114" t="s">
+      <c r="D17" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="115" t="s">
+      <c r="E17" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="115" t="s">
+      <c r="F17" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="116" t="s">
+      <c r="G17" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="116" t="s">
+      <c r="H17" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="116" t="s">
+      <c r="I17" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="116" t="s">
-        <v>142</v>
+      <c r="J17" s="110" t="s">
+        <v>140</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -17282,15 +17259,15 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="100" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -17408,7 +17385,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -17514,7 +17491,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -17713,7 +17690,7 @@
         <v>69</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="34"/>
       <c r="E52" s="34"/>
@@ -17751,7 +17728,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H57" s="13">
         <v>3.8834951456310697E-2</v>
@@ -17849,22 +17826,22 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="61" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B66" s="6"/>
       <c r="D66" s="61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E66" s="6"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
